--- a/TestData/T1967AndT1968_OpportunityComment.xlsx
+++ b/TestData/T1967AndT1968_OpportunityComment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9586E29-37EB-41A2-B70E-1A277DF1BC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Client</t>
   </si>
@@ -244,12 +237,15 @@
   </si>
   <si>
     <t>Christopher Au</t>
+  </si>
+  <si>
+    <t>James Craven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,10 +283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -575,38 +570,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="17" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" style="2"/>
-    <col min="26" max="26" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -652,13 +643,13 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -667,7 +658,7 @@
       <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -696,10 +687,10 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
@@ -738,13 +729,13 @@
       <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R2" t="s">
@@ -753,13 +744,13 @@
       <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" t="s">
         <v>68</v>
       </c>
       <c r="W2" t="s">
@@ -774,10 +765,10 @@
       <c r="Z2" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -788,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,7 +802,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -824,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -894,7 +885,7 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
       <c r="E2" t="s">
@@ -903,7 +894,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -915,7 +906,7 @@
       <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L2" t="s">
